--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2029469.52236971</v>
+        <v>2128311.016505144</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114747</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6103183.887279357</v>
+        <v>6526579.714056944</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>156.410626809741</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>50.38265874613749</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>146.737301333276</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>105.7555210332848</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>227.3231637140254</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -911,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>22.51978202893098</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.724017491756213</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>53.08389505305274</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1184,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>51.28180484925447</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1300,13 +1302,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>134.6953597735375</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.17545041910923</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>6.459779817416869</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>216.6227214320551</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>381.8056011000839</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>64.99733418373785</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1825,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1907,10 +1909,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.2643090249406</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6299102505575</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.15366458399673</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474295</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>75.41330364725573</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2479,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>25.45817320599514</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>77.86122520429248</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2713,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>12.45745267233579</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>58.33552926585409</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3013,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3250,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.5570435056632</v>
+        <v>209.2513221216542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3478,19 +3480,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>218.008057705788</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.6705526084108</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3661,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831823</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>47.37384610069866</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>210.8765917290098</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3791,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>24.82119317800744</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3800,13 +3802,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>217.7402366715761</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>252.8129662993254</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.10742334144665</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4040,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>276.7653860215647</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.88477840153</v>
+        <v>698.2011314469789</v>
       </c>
       <c r="C2" t="n">
-        <v>136.0244524552342</v>
+        <v>540.2105993159274</v>
       </c>
       <c r="D2" t="n">
-        <v>116.7722356806385</v>
+        <v>520.9583825413317</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>667.4947029893171</v>
+        <v>977.228916131015</v>
       </c>
       <c r="M2" t="n">
-        <v>667.4947029893171</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="X2" t="n">
-        <v>580.0300086977657</v>
+        <v>1523.386765783619</v>
       </c>
       <c r="Y2" t="n">
-        <v>174.692738652656</v>
+        <v>1118.049495738509</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>602.6104029955975</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="L3" t="n">
-        <v>602.6104029955975</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="M3" t="n">
-        <v>602.6104029955975</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="N3" t="n">
-        <v>602.6104029955975</v>
+        <v>343.3471304404884</v>
       </c>
       <c r="O3" t="n">
-        <v>1153.275937980036</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.7432593109778</v>
+        <v>304.6789093991879</v>
       </c>
       <c r="C4" t="n">
-        <v>310.5237630147394</v>
+        <v>304.6789093991879</v>
       </c>
       <c r="D4" t="n">
-        <v>310.5237630147394</v>
+        <v>304.6789093991879</v>
       </c>
       <c r="E4" t="n">
-        <v>310.5237630147394</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1474.593756048079</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1194.409307548384</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>912.6978401564124</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>637.8454363289254</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>531.0216777094458</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>304.6789093991879</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.205662800888</v>
+        <v>972.9074190595572</v>
       </c>
       <c r="C5" t="n">
-        <v>615.3049328141885</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4598,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="W5" t="n">
-        <v>1471.030487888973</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.350893097124</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1462.054027092418</v>
+        <v>988.7153793106833</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>695.3677541233694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>695.3677541233694</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L6" t="n">
-        <v>1041.560872408797</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M6" t="n">
-        <v>1041.560872408797</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>1592.226407393235</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O6" t="n">
-        <v>2142.891942377673</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>2142.891942377673</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>983.8830790816388</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>811.9105159605548</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4744,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.591756481816</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V7" t="n">
-        <v>1492.880289089845</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1218.027885262358</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.027885262358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>991.6851169520996</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>458.5578883150744</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.059004423102</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D8" t="n">
-        <v>1597.806787648507</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.829847796364</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
         <v>342.3666035752127</v>
@@ -4802,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>572.914647509062</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2068.744155457482</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2068.744155457482</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.744155457482</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>2061.064560665634</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>2059.767694660928</v>
+        <v>474.3658485662003</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>682.0516858538765</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>510.0791227327925</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>346.7623498595632</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>180.5541440124167</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>180.5541440124167</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>180.5541440124167</v>
       </c>
       <c r="H10" t="n">
         <v>44.49822504924753</v>
@@ -4990,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1615.976723257882</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>1098.5604228762</v>
       </c>
       <c r="Y10" t="n">
-        <v>1027.91077931376</v>
+        <v>872.2176545659422</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2083.62902542074</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1656.72829543404</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1233.43567461904</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679212</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L11" t="n">
-        <v>865.1237628945946</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M11" t="n">
-        <v>1665.565375292397</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N11" t="n">
-        <v>2466.0069876902</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957703</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957703</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957703</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712746</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.81465975738</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2908.81465975738</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2908.81465975738</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2908.81465975738</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2908.81465975738</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2503.47738971227</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168785</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.12879345870395</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>343.826282738295</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>343.826282738295</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>343.826282738295</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>343.826282738295</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N12" t="n">
-        <v>343.826282738295</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.152753954101</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>540.3008144924045</v>
       </c>
       <c r="C13" t="n">
-        <v>975.8907098999449</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267156</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795691</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483617</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209501</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.09517790992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2245.09517790992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2081.788310425034</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597547</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043352</v>
+        <v>766.6435828026624</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>540.3008144924045</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1705.784557903504</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1705.784557903504</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.122334570086</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>894.1453947179433</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679215</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>780.1904584722912</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>780.1904584722912</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>780.1904584722912</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>1151.744818897791</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295594</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453521</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3129.740230712748</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2871.38532130916</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2513.895906435409</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2117.504556735757</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1705.784557903504</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1705.784557903504</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>356.7304516410011</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L15" t="n">
-        <v>1157.172064038804</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M15" t="n">
-        <v>1157.172064038804</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N15" t="n">
-        <v>1157.172064038804</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>478.9271847585218</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>478.9271847585218</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>478.9271847585218</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>478.9271847585218</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.9271847585218</v>
+        <v>1251.137708842932</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5515,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P17" t="n">
         <v>4659.050190787244</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L18" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1061.747191350776</v>
+        <v>373.4203922683234</v>
       </c>
       <c r="C19" t="n">
-        <v>889.7746282296921</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="D19" t="n">
-        <v>726.4578553564628</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="E19" t="n">
-        <v>560.2496495093163</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="F19" t="n">
-        <v>388.3878752838767</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="G19" t="n">
-        <v>222.1309055781089</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5686,37 +5688,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338096</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563996</v>
       </c>
       <c r="U19" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.0568970643</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.81982492729</v>
+        <v>1307.345429672329</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.81982492729</v>
+        <v>1032.493025844842</v>
       </c>
       <c r="X19" t="n">
-        <v>1478.255928373095</v>
+        <v>789.929129290647</v>
       </c>
       <c r="Y19" t="n">
-        <v>1251.913160062837</v>
+        <v>563.586360980389</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,25 +5755,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,7 +5788,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3270.011978872612</v>
+        <v>516.5477476675618</v>
       </c>
       <c r="C22" t="n">
-        <v>3098.039415751528</v>
+        <v>516.5477476675618</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>516.5477476675618</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>350.3395418204153</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>178.4777675949757</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>985.4544125320147</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>742.8905159778197</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>516.5477476675618</v>
       </c>
     </row>
     <row r="23">
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.8401132784822</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C25" t="n">
-        <v>345.8675501573982</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D25" t="n">
-        <v>345.8675501573982</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>345.8675501573982</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2257.000414348255</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T25" t="n">
-        <v>2013.661066574155</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="U25" t="n">
-        <v>1733.476618074459</v>
+        <v>4787.912608478905</v>
       </c>
       <c r="V25" t="n">
-        <v>1451.765150682488</v>
+        <v>4709.264906252347</v>
       </c>
       <c r="W25" t="n">
-        <v>1176.912746855001</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="X25" t="n">
-        <v>934.3488503008059</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y25" t="n">
-        <v>708.006081990548</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="26">
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.7245472657505</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>552.7245472657505</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>540.1412617381386</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>373.9330558909921</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
         <v>202.0712816655526</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.8905159778161</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6470,13 +6472,13 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3328.936755908828</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C31" t="n">
-        <v>3156.964192787744</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D31" t="n">
-        <v>2993.647419914515</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E31" t="n">
-        <v>2993.647419914515</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4824.7577092045</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4544.573260704805</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.861793312833</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3988.009389485347</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>3745.445492931152</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y31" t="n">
-        <v>3519.102724620894</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>578.5641574505885</v>
+        <v>3410.984086923059</v>
       </c>
       <c r="C34" t="n">
-        <v>578.5641574505885</v>
+        <v>3410.984086923059</v>
       </c>
       <c r="D34" t="n">
-        <v>578.5641574505885</v>
+        <v>3410.984086923059</v>
       </c>
       <c r="E34" t="n">
-        <v>412.355951603442</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y34" t="n">
-        <v>768.7301261626542</v>
+        <v>3410.984086923059</v>
       </c>
     </row>
     <row r="35">
@@ -6947,16 +6949,16 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7014,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1263.481480696891</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>609.4538236255814</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>437.4812605044974</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>609.4538236255814</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690841</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109899</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.0699265966</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7242,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>683.9375302299842</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C40" t="n">
-        <v>683.9375302299842</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9375302299842</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828377</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573981</v>
+        <v>393.7199199560837</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1899.574035025961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1617.86256763399</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1343.010163806503</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X40" t="n">
-        <v>1100.446267252308</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.1034989420498</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2077.103995302137</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1650.203265315437</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1226.910644500437</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332089</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.6821504967921</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>64.6821504967921</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945945</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M41" t="n">
-        <v>865.1237628945945</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N41" t="n">
-        <v>1665.565375292397</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O41" t="n">
-        <v>2408.271910799775</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P41" t="n">
-        <v>3116.551189957703</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957703</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712746</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3104.668318411728</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>2846.31340900814</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2488.82399413439</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2488.82399413439</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2077.103995302137</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2077.103995302137</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282473</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457521</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610371</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339743</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168785</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>865.1237628945945</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.565375292397</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1665.565375292397</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1665.565375292397</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950177</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.73265094831</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1555.192039267937</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="C43" t="n">
-        <v>1383.219476146853</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D43" t="n">
-        <v>1219.902703273624</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E43" t="n">
-        <v>1053.694497426477</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F43" t="n">
-        <v>1053.694497426477</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G43" t="n">
-        <v>1053.694497426477</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>1053.694497426477</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>1053.694497426477</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>1111.185825650635</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>1337.713426856473</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>1692.402748150893</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>2083.588543121144</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>2461.08005399718</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>2816.508182676943</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>3107.107394598844</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>3234.107524839606</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>3234.107524839606</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>3234.107524839606</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2990.768177065505</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2770.828544063913</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>2489.117076671942</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>2214.264672844456</v>
+        <v>1004.940183733917</v>
       </c>
       <c r="X43" t="n">
-        <v>1971.700776290261</v>
+        <v>762.3762871797219</v>
       </c>
       <c r="Y43" t="n">
-        <v>1745.358007980003</v>
+        <v>536.0335188694639</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.976622961234</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.075892974534</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>64.6821504967921</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>64.6821504967921</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>64.6821504967921</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>427.2856093136876</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>1227.72722171149</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>2028.168834109292</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N44" t="n">
-        <v>2433.665912441803</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O44" t="n">
-        <v>3234.107524839606</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839606</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839606</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.181953884239</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.181953884239</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2655.692539010488</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2259.301189310835</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2259.301189310835</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1853.963919265726</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282473</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457521</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610371</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339743</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168785</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>64.6821504967921</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>64.6821504967921</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>64.6821504967921</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L45" t="n">
-        <v>64.6821504967921</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M45" t="n">
-        <v>272.4865562816972</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.9281686795</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950177</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.73265094831</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>336.4232818776002</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>164.4507187565162</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>164.4507187565162</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>164.4507187565162</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209501</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1831.620782654955</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1552.059786673577</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1270.348319281606</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>995.4959154541187</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>752.9320188999238</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>526.5892505896659</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>111.3736009736648</v>
+        <v>136.2760805936067</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533996</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8067,19 +8069,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>54.62333717170315</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>259.9167409896189</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178311</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>300.3028744740158</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>268.0669951958121</v>
       </c>
       <c r="L6" t="n">
-        <v>372.2051051843584</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>569.51856287543</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>549.852899948183</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>91.00089423008578</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425244</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093333</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443475</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>694.5063151817851</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8766,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>761.8854970109148</v>
+        <v>775.9541620884372</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N14" t="n">
-        <v>412.5870576076779</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>317.3975178173828</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>659.4413150363887</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>480.8452212937382</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9252,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>427.5561602122188</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>809.3863451554519</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>991.4483453949176</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>206.9863830499477</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296051</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425243</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443474</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>787.5995810806487</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11145,10 +11147,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222294</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N42" t="n">
-        <v>829.869909423443</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>149.8026905114047</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425243</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093331</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>446.8726312511232</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659254</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>233.0002206991008</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.869909423443</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321236</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>415.2573906362041</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>23.51553615659782</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>37.2540935067658</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>123.2669748412071</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>23.72839555636963</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0.6172179931300548</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.098167740202</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>89.18109636145445</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9755238000614</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>201.0331275137589</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.2261524721612</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>111.8076272173311</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.52229712149213</v>
+        <v>14.82801850550118</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>59.37454630891071</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.40878801874456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>117.2205539080115</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>66.506012285689</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>193.8951220678057</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -25801,10 +25803,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>59.64236734312266</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>19.29091348988669</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>328.5424573071681</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26041,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.6172179931340906</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>570565.8610840475</v>
+        <v>569079.8373445484</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>417145.7423111825</v>
+        <v>562561.1097765429</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>417145.7423111825</v>
+        <v>562561.1097765431</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>562561.1097765431</v>
+        <v>562561.109776543</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562561.109776543</v>
+        <v>562561.1097765431</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417145.7423111824</v>
+        <v>562561.109776543</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417145.7423111824</v>
+        <v>562561.109776543</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>465954.1344089307</v>
+      </c>
+      <c r="C2" t="n">
+        <v>465954.1344089302</v>
+      </c>
+      <c r="D2" t="n">
         <v>465954.1344089304</v>
       </c>
-      <c r="C2" t="n">
-        <v>465954.1344089304</v>
-      </c>
-      <c r="D2" t="n">
-        <v>465954.1344089303</v>
-      </c>
       <c r="E2" t="n">
-        <v>333410.0096021965</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="F2" t="n">
-        <v>333410.0096021967</v>
+        <v>449624.322509958</v>
       </c>
       <c r="G2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099581</v>
       </c>
       <c r="H2" t="n">
         <v>449624.322509958</v>
       </c>
       <c r="I2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="K2" t="n">
         <v>449624.322509958</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449624.3225099581</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="M2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="N2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="O2" t="n">
-        <v>333410.0096021966</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="P2" t="n">
-        <v>333410.0096021966</v>
+        <v>449624.3225099581</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534621</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
-        <v>1.080267992972727e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537377</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156753.0758057354</v>
+        <v>171848.3668116666</v>
       </c>
       <c r="C4" t="n">
         <v>156753.0758057354</v>
@@ -26424,13 +26426,13 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>21799.09004189545</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="F4" t="n">
-        <v>21799.09004189546</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26442,7 +26444,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="L4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>21799.09004189545</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>21799.09004189545</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.434377562</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.434377562</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55350.07415102966</v>
+        <v>68939.84870551166</v>
       </c>
       <c r="C6" t="n">
+        <v>218347.9738921544</v>
+      </c>
+      <c r="D6" t="n">
         <v>241754.8075657669</v>
       </c>
-      <c r="D6" t="n">
-        <v>241754.8075657668</v>
-      </c>
       <c r="E6" t="n">
-        <v>187121.5340292769</v>
+        <v>126702.6167089761</v>
       </c>
       <c r="F6" t="n">
-        <v>262452.4851827391</v>
+        <v>342441.9732656168</v>
       </c>
       <c r="G6" t="n">
-        <v>213551.5734540762</v>
+        <v>342441.9732656169</v>
       </c>
       <c r="H6" t="n">
         <v>342441.9732656168</v>
       </c>
       <c r="I6" t="n">
-        <v>342441.9732656168</v>
+        <v>342441.9732656167</v>
       </c>
       <c r="J6" t="n">
-        <v>196908.3033308003</v>
+        <v>215864.7046853279</v>
       </c>
       <c r="K6" t="n">
-        <v>342441.9732656167</v>
+        <v>323795.372908597</v>
       </c>
       <c r="L6" t="n">
         <v>342441.9732656167</v>
       </c>
       <c r="M6" t="n">
-        <v>279568.0363002429</v>
+        <v>162378.1018104491</v>
       </c>
       <c r="N6" t="n">
-        <v>342441.9732656168</v>
+        <v>342441.9732656167</v>
       </c>
       <c r="O6" t="n">
-        <v>262452.4851827391</v>
+        <v>342441.9732656167</v>
       </c>
       <c r="P6" t="n">
-        <v>262452.4851827391</v>
+        <v>342441.9732656169</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099015</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099014</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099014</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943073</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
-        <v>3.770226761176042e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943073</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943073</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
-        <v>3.770226761176042e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>266.2210958770919</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>371.3345117074835</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,19 +27539,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>23.51553615659714</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>134.3827365553681</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>191.7365308928242</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>233.2515782806208</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.5402915331888</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>369.5478276337801</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>204.4895554602974</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.66294603338963</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28062,7 +28064,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.9038902080462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28627,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-9.447307911209932e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28719,7 +28721,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>73.0615585410419</v>
+        <v>97.96403816098376</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>33.28030895816148</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>238.1458997847902</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598446</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
+        <v>533.7539620806206</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="L6" t="n">
-        <v>349.6900184701288</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>67.9041137177578</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099015</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099015</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099015</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>657.115355825761</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>738.7136072886926</v>
+        <v>752.782272366215</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N14" t="n">
-        <v>375.3074347732319</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>294.9982839840495</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>443.2698594835069</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36054,7 +36056,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977446</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36285,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366207</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>771.074302722829</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37315,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>954.1687225604716</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>185.215541845119</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.3737911969822</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099014</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099014</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>750.2086217246245</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099014</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099014</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>127.0556522224262</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099014</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099014</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>409.5930084166772</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099014</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>209.9034401867728</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099014</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099014</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2128311.016505144</v>
+        <v>2127614.355300053</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114747</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>156.410626809741</v>
+        <v>237.0440086286958</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -673,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>124.4154373474069</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>105.7555210332848</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>103.4488356343272</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>22.51978202893098</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1056,19 +1056,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>149.1427835161695</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1104,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,7 +1135,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>53.08389505305274</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1150,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>292.0778619076204</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>134.6953597735375</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>3.331131593055265</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>162.0057120490094</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>216.6227214320551</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.99733418373785</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>11.18785490339405</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.15366458399673</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>191.1591006787476</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>75.41330364725573</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>77.86122520429248</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>123.9086344760396</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.2513221216542</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3432,10 +3432,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.008057705788</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>267.8356457594583</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831823</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>47.37384610069866</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>130.8077865561563</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>252.8129662993254</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>210.7441578162053</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>698.2011314469789</v>
+        <v>340.7117165732328</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2105993159274</v>
+        <v>101.2733240189946</v>
       </c>
       <c r="D2" t="n">
-        <v>520.9583825413317</v>
+        <v>82.02110724439892</v>
       </c>
       <c r="E2" t="n">
-        <v>499.0218467295933</v>
+        <v>60.08457143266052</v>
       </c>
       <c r="F2" t="n">
-        <v>477.9380689593976</v>
+        <v>39.00079366246482</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>403.5871017449317</v>
       </c>
       <c r="L2" t="n">
-        <v>977.228916131015</v>
+        <v>882.526025987361</v>
       </c>
       <c r="M2" t="n">
-        <v>1456.167840373443</v>
+        <v>882.526025987361</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373443</v>
+        <v>882.526025987361</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.106764615871</v>
+        <v>882.526025987361</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1361.46495022979</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615871</v>
+        <v>1577.617349742125</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615871</v>
+        <v>1577.617349742125</v>
       </c>
       <c r="X2" t="n">
-        <v>1523.386765783619</v>
+        <v>1165.897350909873</v>
       </c>
       <c r="Y2" t="n">
-        <v>1118.049495738509</v>
+        <v>760.5600808647629</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719085</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>310.3996245719085</v>
+        <v>343.3471304404864</v>
       </c>
       <c r="L3" t="n">
-        <v>310.3996245719085</v>
+        <v>822.2860546829156</v>
       </c>
       <c r="M3" t="n">
-        <v>310.3996245719085</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3471304404884</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>822.2860546829165</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
         <v>1301.224978925345</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.6789093991879</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>304.6789093991879</v>
+        <v>949.9106946954704</v>
       </c>
       <c r="D4" t="n">
-        <v>304.6789093991879</v>
+        <v>786.5939218222411</v>
       </c>
       <c r="E4" t="n">
-        <v>138.4707035520415</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="F4" t="n">
-        <v>138.4707035520415</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520415</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981546</v>
+        <v>165.7127968735044</v>
       </c>
       <c r="L4" t="n">
-        <v>619.9190577925754</v>
+        <v>520.4021181679252</v>
       </c>
       <c r="M4" t="n">
-        <v>1011.104852762826</v>
+        <v>911.587913138176</v>
       </c>
       <c r="N4" t="n">
-        <v>1388.596363638862</v>
+        <v>1289.079424014212</v>
       </c>
       <c r="O4" t="n">
-        <v>1744.024492318625</v>
+        <v>1644.507552693975</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303044</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822179</v>
+        <v>1764.971717135011</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048079</v>
+        <v>1764.971717135011</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.409307548384</v>
+        <v>1764.971717135011</v>
       </c>
       <c r="V4" t="n">
-        <v>912.6978401564124</v>
+        <v>1764.971717135011</v>
       </c>
       <c r="W4" t="n">
-        <v>637.8454363289254</v>
+        <v>1490.119313307524</v>
       </c>
       <c r="X4" t="n">
-        <v>531.0216777094458</v>
+        <v>1247.555416753329</v>
       </c>
       <c r="Y4" t="n">
-        <v>304.6789093991879</v>
+        <v>1247.555416753329</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595572</v>
+        <v>234.1248547200804</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728574</v>
+        <v>211.2645287737846</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>192.0123119991889</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>170.0757761874505</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>148.9919984172548</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2202.163997887699</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2202.163997887699</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1805.772648188046</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.052649355793</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106833</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>287.7093087981016</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>287.7093087981016</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>287.7093087981016</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4752,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2061.60438497749</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2061.60438497749</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>2061.60438497749</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>458.5578883150744</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
-        <v>404.9377923018898</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>385.6855755272941</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4849,7 +4849,7 @@
         <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>474.3658485662003</v>
+        <v>180.6345712298752</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>838.3748437825398</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>838.3748437825398</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>1389.040378766978</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.040378766978</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.0516858538765</v>
+        <v>798.1543688531086</v>
       </c>
       <c r="C10" t="n">
-        <v>510.0791227327925</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D10" t="n">
-        <v>346.7623498595632</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
-        <v>180.5541440124167</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>180.5541440124167</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>180.5541440124167</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2221.546473075451</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2051.411425594586</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>2051.411425594586</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>1771.22697709489</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.976723257882</v>
+        <v>1489.515509702919</v>
       </c>
       <c r="W10" t="n">
-        <v>1341.124319430395</v>
+        <v>1214.663105875432</v>
       </c>
       <c r="X10" t="n">
-        <v>1098.5604228762</v>
+        <v>1214.663105875432</v>
       </c>
       <c r="Y10" t="n">
-        <v>872.2176545659422</v>
+        <v>988.3203375651742</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L12" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M12" t="n">
-        <v>1165.735894343786</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N12" t="n">
-        <v>1165.735894343786</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.3008144924045</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C13" t="n">
-        <v>368.3282513713204</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D13" t="n">
-        <v>368.3282513713204</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E13" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5238,13 +5238,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X13" t="n">
-        <v>766.6435828026624</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y13" t="n">
-        <v>540.3008144924045</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="14">
@@ -5278,49 +5278,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5357,25 +5357,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>1199.06430284061</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808982</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X16" t="n">
-        <v>1477.48047715319</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y16" t="n">
-        <v>1251.137708842932</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="17">
@@ -5515,46 +5515,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>188.235025135897</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.654482149731</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
@@ -5597,22 +5597,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683234</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4478291472394</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4478291472394</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E19" t="n">
-        <v>201.4478291472394</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F19" t="n">
-        <v>201.4478291472394</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>201.4478291472394</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>201.4478291472394</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5688,37 +5688,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818961</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338096</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563996</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.0568970643</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672329</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844842</v>
+        <v>1310.556163447995</v>
       </c>
       <c r="X19" t="n">
-        <v>789.929129290647</v>
+        <v>1067.9922668938</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.586360980389</v>
+        <v>841.6494985835418</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5752,49 +5752,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5840,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675618</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>516.5477476675618</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>516.5477476675618</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>350.3395418204153</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>178.4777675949757</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5910,52 +5910,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025269</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251169</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751473</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359502</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320147</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778197</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675618</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6077,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>5068.0970569786</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4787.912608478905</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4709.264906252347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4434.41250242486</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6420,16 +6420,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.5920494001418</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>265.6194862790578</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>854.1007864224655</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>627.7580181122075</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3410.984086923059</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>3410.984086923059</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D34" t="n">
-        <v>3410.984086923059</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E34" t="n">
-        <v>3244.775881075912</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F34" t="n">
-        <v>3244.775881075912</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="G34" t="n">
-        <v>3078.518911370144</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4701.661275036462</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4421.476826536767</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.765359144795</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>3864.912955317308</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>3622.349058763114</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>3410.984086923059</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
         <v>4659.050190787244</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M36" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N36" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O36" t="n">
-        <v>1263.481480696891</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F37" t="n">
         <v>512.1245198631661</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U37" t="n">
-        <v>1601.992572952389</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V37" t="n">
-        <v>1601.992572952389</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W37" t="n">
-        <v>1601.992572952389</v>
+        <v>1280.14372112374</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>1037.579824569545</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>1037.579824569545</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7174,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>366.6855125151251</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1067.07923602298</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>895.1066729018962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>731.7899000286669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>565.5816941815204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>393.7199199560837</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1257.245204735046</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7411,34 +7411,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>345.8675501573982</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C43" t="n">
-        <v>345.8675501573982</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7599,22 +7599,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W43" t="n">
-        <v>1004.940183733917</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X43" t="n">
-        <v>762.3762871797219</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y43" t="n">
-        <v>536.0335188694639</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>700.2342829360799</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
         <v>1364.825557038856</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>446.1370507523521</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C46" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D46" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E46" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1380.062088156358</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.20968432887</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X46" t="n">
-        <v>862.6457877746757</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y46" t="n">
-        <v>636.3030194644177</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>38.06915396220197</v>
       </c>
       <c r="L2" t="n">
-        <v>136.2760805936067</v>
+        <v>522.0887335865918</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533996</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642003</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>48.15768121380397</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681985</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.873471666297</v>
       </c>
       <c r="N3" t="n">
-        <v>54.62333717170315</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587965</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094664</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>215.3931969178311</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8218,7 +8218,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
@@ -8227,16 +8227,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>268.0669951958121</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8309,7 +8309,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8318,7 +8318,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>300.3028744740158</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K9" t="n">
-        <v>549.852899948183</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>775.9541620884372</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>660.9541399377149</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536363</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9017,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>659.4413150363887</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>467.0745387486232</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,16 +9254,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,16 +10594,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>206.9863830499477</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,7 +10834,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P45" t="n">
-        <v>693.0751584803598</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>2.540411739665615</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>23.51553615659782</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>123.2669748412071</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>153.3582688852809</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6172179931300548</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>80.94477911046451</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89.18109636145445</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>201.0331275137589</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.44967133088755</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,7 +24852,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25083,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0.5075369864461265</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.82801850550118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>59.37454630891071</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>4.268234029753842</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>117.2205539080115</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25803,10 +25803,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>19.29091348988669</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>68.15019490184611</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>562561.1097765429</v>
+        <v>562561.1097765431</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>562561.1097765431</v>
+        <v>562561.109776543</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>562561.1097765431</v>
+        <v>562561.109776543</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562561.1097765431</v>
+        <v>562561.109776543</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089307</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="C2" t="n">
-        <v>465954.1344089302</v>
+        <v>465954.1344089304</v>
       </c>
       <c r="D2" t="n">
         <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="F2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="H2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="I2" t="n">
         <v>449624.322509958</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449624.3225099581</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449624.322509958</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449624.3225099579</v>
       </c>
       <c r="J2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="K2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="M2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="N2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="O2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099581</v>
       </c>
       <c r="P2" t="n">
-        <v>449624.3225099581</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171848.3668116666</v>
+        <v>171848.3668116663</v>
       </c>
       <c r="C4" t="n">
         <v>156753.0758057354</v>
@@ -26426,13 +26426,13 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26444,7 +26444,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
         <v>29432.2870559115</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26505,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68939.84870551166</v>
+        <v>68939.84870551134</v>
       </c>
       <c r="C6" t="n">
-        <v>218347.9738921544</v>
+        <v>218347.973892155</v>
       </c>
       <c r="D6" t="n">
         <v>241754.8075657669</v>
       </c>
       <c r="E6" t="n">
-        <v>126702.6167089761</v>
+        <v>126651.586046792</v>
       </c>
       <c r="F6" t="n">
-        <v>342441.9732656168</v>
+        <v>342390.9426034325</v>
       </c>
       <c r="G6" t="n">
-        <v>342441.9732656169</v>
+        <v>342390.9426034324</v>
       </c>
       <c r="H6" t="n">
-        <v>342441.9732656168</v>
+        <v>342390.9426034324</v>
       </c>
       <c r="I6" t="n">
-        <v>342441.9732656167</v>
+        <v>342390.9426034325</v>
       </c>
       <c r="J6" t="n">
-        <v>215864.7046853279</v>
+        <v>215813.6740231434</v>
       </c>
       <c r="K6" t="n">
-        <v>323795.372908597</v>
+        <v>323744.3422464129</v>
       </c>
       <c r="L6" t="n">
-        <v>342441.9732656167</v>
+        <v>342390.9426034323</v>
       </c>
       <c r="M6" t="n">
-        <v>162378.1018104491</v>
+        <v>162327.0711482647</v>
       </c>
       <c r="N6" t="n">
-        <v>342441.9732656167</v>
+        <v>342390.9426034324</v>
       </c>
       <c r="O6" t="n">
-        <v>342441.9732656167</v>
+        <v>342390.9426034326</v>
       </c>
       <c r="P6" t="n">
-        <v>342441.9732656169</v>
+        <v>342390.9426034324</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>266.2210958770919</v>
+        <v>185.587714058137</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>63.84887167753813</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>134.3827365553681</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>296.8468361521186</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>233.2515782806208</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.45161649254067</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.3281253757179</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>369.5478276337801</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>109.2060354370381</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>7.66294603338963</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>43.23709558664331</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>2.304553167392623</v>
       </c>
       <c r="L2" t="n">
-        <v>97.96403816098376</v>
+        <v>483.776691153969</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25.75844738047063</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="N3" t="n">
-        <v>33.28030895816148</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567545</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>193.0123962598446</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>533.7539620806206</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35038,7 +35038,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K9" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,7 +35488,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>752.782272366215</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>623.5228770382831</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>587.902602543405</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35725,7 +35725,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>636.2694253141665</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>444.6753049152899</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36056,7 +36056,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977446</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.1371666366207</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,16 +37314,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>185.215541845119</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P45" t="n">
-        <v>671.3043172755312</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
